--- a/Gesture-Recognition-Accuracy.xlsx
+++ b/Gesture-Recognition-Accuracy.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Documents\Classes\Cyber Physical Systems\Robot-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="13395" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -62,9 +67,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DFDA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -166,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
@@ -186,11 +197,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -198,9 +215,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8DFDA0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -249,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +307,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,6 +359,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,14 +555,14 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -545,7 +604,7 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>18</v>
       </c>
       <c r="C2" s="6">
@@ -573,7 +632,7 @@
         <f>SUM(B2:I2)</f>
         <v>20</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <f>B2*100/J2</f>
         <v>90</v>
       </c>
@@ -585,7 +644,7 @@
       <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="10">
         <v>21</v>
       </c>
       <c r="D3" s="6">
@@ -610,7 +669,7 @@
         <f t="shared" ref="J3:J9" si="0">SUM(B3:I3)</f>
         <v>21</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="9">
         <f>C3*100/J3</f>
         <v>100</v>
       </c>
@@ -625,7 +684,7 @@
       <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <v>20</v>
       </c>
       <c r="E4" s="6">
@@ -647,7 +706,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="9">
         <f>D4*100/J4</f>
         <v>100</v>
       </c>
@@ -665,7 +724,7 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="10">
         <v>20</v>
       </c>
       <c r="F5" s="6">
@@ -705,7 +764,7 @@
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="10">
         <v>20</v>
       </c>
       <c r="G6" s="6">
@@ -745,7 +804,7 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="10">
         <v>20</v>
       </c>
       <c r="H7" s="6">
@@ -785,7 +844,7 @@
       <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="10">
         <v>21</v>
       </c>
       <c r="I8" s="6">
@@ -825,7 +884,7 @@
       <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="10">
         <v>0</v>
       </c>
       <c r="J9" s="6">

--- a/Gesture-Recognition-Accuracy.xlsx
+++ b/Gesture-Recognition-Accuracy.xlsx
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -177,37 +184,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,343 +563,345 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
+    <col min="2" max="10" width="7.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="53" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>18</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
         <v>2</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f>SUM(B2:I2)</f>
         <v>20</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <f>B2*100/J2</f>
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
         <v>21</v>
       </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J9" si="0">SUM(B3:I3)</f>
         <v>21</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <f>C3*100/J3</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>20</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <f>D4*100/J4</f>
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>20</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f>E5*100/J5</f>
         <v>95.238095238095241</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="4">
         <v>20</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f>F6*100/J6</f>
         <v>95.238095238095241</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>20</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f>G7*100/J7</f>
         <v>95.238095238095241</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>21</v>
       </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f>H8*100/J8</f>
         <v>91.304347826086953</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
